--- a/SabvotonRegister.xlsx
+++ b/SabvotonRegister.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
   <si>
     <t xml:space="preserve">register#</t>
   </si>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">0x0009</t>
   </si>
   <si>
-    <t xml:space="preserve">Current Loop Ki ???</t>
+    <t xml:space="preserve">Current Loop Ki</t>
   </si>
   <si>
     <t xml:space="preserve">Hall angle test switch</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">0xfffc</t>
   </si>
   <si>
-    <t xml:space="preserve">Weaken currenr fbk ?</t>
+    <t xml:space="preserve">Weaken currenr fbk</t>
   </si>
   <si>
     <t xml:space="preserve">Torque current cmd</t>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve">0x0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strom ??</t>
   </si>
   <si>
     <t xml:space="preserve">0x4d7c</t>
@@ -750,8 +753,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2344,6 +2347,9 @@
         <f aca="false">IF(D92="float",ROUND(100*B92/54.6,0)/100,IF(D92="dfloat",ROUND(100*B92/6553,0)/100,B92))</f>
         <v>0</v>
       </c>
+      <c r="F92" s="0" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
@@ -2368,7 +2374,7 @@
         <v>19836</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>56</v>
@@ -2386,7 +2392,7 @@
         <v>-37</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="n">
         <f aca="false">IF(D95="float",ROUND(100*B95/54.6,0)/100,IF(D95="dfloat",ROUND(100*B95/6553,0)/100,B95))</f>
@@ -2401,7 +2407,7 @@
         <v>7630</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="n">
         <f aca="false">IF(D96="float",ROUND(100*B96/54.6,0)/100,IF(D96="dfloat",ROUND(100*B96/6553,0)/100,B96))</f>
@@ -2416,7 +2422,7 @@
         <v>30667</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>56</v>
@@ -2434,7 +2440,7 @@
         <v>-4765</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="n">
         <f aca="false">IF(D98="float",ROUND(100*B98/54.6,0)/100,IF(D98="dfloat",ROUND(100*B98/6553,0)/100,B98))</f>
@@ -2449,7 +2455,7 @@
         <v>-16918</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="n">
         <f aca="false">IF(D99="float",ROUND(100*B99/54.6,0)/100,IF(D99="dfloat",ROUND(100*B99/6553,0)/100,B99))</f>
@@ -2479,7 +2485,7 @@
         <v>1538</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="n">
         <f aca="false">IF(D101="float",ROUND(100*B101/54.6,0)/100,IF(D101="dfloat",ROUND(100*B101/6553,0)/100,B101))</f>
@@ -2494,14 +2500,14 @@
         <v>13345</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="n">
         <f aca="false">IF(D102="float",ROUND(100*B102/54.6,0)/100,IF(D102="dfloat",ROUND(100*B102/6553,0)/100,B102))</f>
         <v>13345</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
